--- a/11-CollaborationList/DOE-LBNL.xlsx
+++ b/11-CollaborationList/DOE-LBNL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D14F3-866E-A944-8EA0-F6AF8131F919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC976371-8554-F24A-BEAB-DC213531F277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>DOE-LBNL</t>
   </si>
   <si>
-    <t>Berkeley, USA</t>
-  </si>
-  <si>
     <t>Lieselotte</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>A. Snijders</t>
+  </si>
+  <si>
+    <t>Lawrence Berkeley National Laboratory, 1 Cyclotron Road, Berkeley, CA 94720, USA</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1122,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1130,25 +1130,25 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1156,25 +1156,25 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
